--- a/Code/Results/Cases/Case_3_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019968774645889</v>
+        <v>1.044746123766386</v>
       </c>
       <c r="D2">
-        <v>1.033889327723357</v>
+        <v>1.046124982441258</v>
       </c>
       <c r="E2">
-        <v>1.032049704685202</v>
+        <v>1.052897441569706</v>
       </c>
       <c r="F2">
-        <v>1.039543971989009</v>
+        <v>1.064543961853475</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055398134367337</v>
+        <v>1.045669872579522</v>
       </c>
       <c r="J2">
-        <v>1.041568196883514</v>
+        <v>1.04980955987066</v>
       </c>
       <c r="K2">
-        <v>1.044895887815079</v>
+        <v>1.048891295850239</v>
       </c>
       <c r="L2">
-        <v>1.043079888039014</v>
+        <v>1.055644903836449</v>
       </c>
       <c r="M2">
-        <v>1.050478572168183</v>
+        <v>1.067259613238838</v>
       </c>
       <c r="N2">
-        <v>1.017324791557727</v>
+        <v>1.020432980523155</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024757345622893</v>
+        <v>1.045739685798793</v>
       </c>
       <c r="D3">
-        <v>1.037430968996806</v>
+        <v>1.046872203366356</v>
       </c>
       <c r="E3">
-        <v>1.036211844552752</v>
+        <v>1.05381357995693</v>
       </c>
       <c r="F3">
-        <v>1.044346706504914</v>
+        <v>1.065617123146953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057204709821962</v>
+        <v>1.045978034621589</v>
       </c>
       <c r="J3">
-        <v>1.044595122247876</v>
+        <v>1.050450284518014</v>
       </c>
       <c r="K3">
-        <v>1.047606307669285</v>
+        <v>1.049450263464028</v>
       </c>
       <c r="L3">
-        <v>1.046401440696606</v>
+        <v>1.056373714702255</v>
       </c>
       <c r="M3">
-        <v>1.054441944659093</v>
+        <v>1.06814735425734</v>
       </c>
       <c r="N3">
-        <v>1.018363016315435</v>
+        <v>1.020650040175898</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027789636255878</v>
+        <v>1.04638279349944</v>
       </c>
       <c r="D4">
-        <v>1.039675988229016</v>
+        <v>1.047355814031524</v>
       </c>
       <c r="E4">
-        <v>1.038853076129969</v>
+        <v>1.054406949553625</v>
       </c>
       <c r="F4">
-        <v>1.047395118763488</v>
+        <v>1.066312365911983</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058338530979263</v>
+        <v>1.04617624167151</v>
       </c>
       <c r="J4">
-        <v>1.046508237539184</v>
+        <v>1.050864470575411</v>
       </c>
       <c r="K4">
-        <v>1.049318027667308</v>
+        <v>1.049811396221749</v>
       </c>
       <c r="L4">
-        <v>1.0485041462425</v>
+        <v>1.056845239182677</v>
       </c>
       <c r="M4">
-        <v>1.056953295091868</v>
+        <v>1.068722015647432</v>
       </c>
       <c r="N4">
-        <v>1.019018850526907</v>
+        <v>1.020790255574705</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02904914173916</v>
+        <v>1.046653205014375</v>
       </c>
       <c r="D5">
-        <v>1.040608996525173</v>
+        <v>1.047559149055476</v>
       </c>
       <c r="E5">
-        <v>1.039951460216149</v>
+        <v>1.054656537009399</v>
       </c>
       <c r="F5">
-        <v>1.048663010690317</v>
+        <v>1.066604845329782</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058807002840052</v>
+        <v>1.046259281601756</v>
       </c>
       <c r="J5">
-        <v>1.047301970454039</v>
+        <v>1.051038496709283</v>
       </c>
       <c r="K5">
-        <v>1.050027869063693</v>
+        <v>1.049963082554154</v>
       </c>
       <c r="L5">
-        <v>1.049377352514034</v>
+        <v>1.057043451908691</v>
       </c>
       <c r="M5">
-        <v>1.057996772772365</v>
+        <v>1.068963658566696</v>
       </c>
       <c r="N5">
-        <v>1.019290857623685</v>
+        <v>1.020849145179868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029259739341677</v>
+        <v>1.046698611160803</v>
       </c>
       <c r="D6">
-        <v>1.040765030016602</v>
+        <v>1.047593291345358</v>
       </c>
       <c r="E6">
-        <v>1.040135193247449</v>
+        <v>1.054698451727066</v>
       </c>
       <c r="F6">
-        <v>1.048875109187725</v>
+        <v>1.066653965581374</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058885187707195</v>
+        <v>1.046273207571091</v>
       </c>
       <c r="J6">
-        <v>1.047434633535351</v>
+        <v>1.051067710717957</v>
       </c>
       <c r="K6">
-        <v>1.05014649071368</v>
+        <v>1.049988543488324</v>
       </c>
       <c r="L6">
-        <v>1.049523346627592</v>
+        <v>1.05707673173128</v>
       </c>
       <c r="M6">
-        <v>1.058171268883358</v>
+        <v>1.069004234698379</v>
       </c>
       <c r="N6">
-        <v>1.019336314796856</v>
+        <v>1.0208590296561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027806525073309</v>
+        <v>1.046386406559177</v>
       </c>
       <c r="D7">
-        <v>1.039688497079464</v>
+        <v>1.047358530906614</v>
       </c>
       <c r="E7">
-        <v>1.038867799326719</v>
+        <v>1.054410284024466</v>
       </c>
       <c r="F7">
-        <v>1.047412113391019</v>
+        <v>1.066316273253795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058344822595421</v>
+        <v>1.046177352380599</v>
       </c>
       <c r="J7">
-        <v>1.046518884399649</v>
+        <v>1.050866796305678</v>
       </c>
       <c r="K7">
-        <v>1.049327550571219</v>
+        <v>1.049813423588763</v>
       </c>
       <c r="L7">
-        <v>1.048515855906969</v>
+        <v>1.05684788777513</v>
       </c>
       <c r="M7">
-        <v>1.056967285824534</v>
+        <v>1.068725244275577</v>
       </c>
       <c r="N7">
-        <v>1.019022499509117</v>
+        <v>1.020791042684609</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021601172664785</v>
+        <v>1.045081859664116</v>
       </c>
       <c r="D8">
-        <v>1.035096133616684</v>
+        <v>1.046377486168294</v>
       </c>
       <c r="E8">
-        <v>1.033467353043981</v>
+        <v>1.053206936976639</v>
       </c>
       <c r="F8">
-        <v>1.041179680863525</v>
+        <v>1.064906468291165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056016095897955</v>
+        <v>1.045774264468042</v>
       </c>
       <c r="J8">
-        <v>1.042600802249661</v>
+        <v>1.050026179408065</v>
       </c>
       <c r="K8">
-        <v>1.045820798827575</v>
+        <v>1.049080316465524</v>
       </c>
       <c r="L8">
-        <v>1.044212295586406</v>
+        <v>1.055891221934982</v>
       </c>
       <c r="M8">
-        <v>1.051829307339471</v>
+        <v>1.067559580714132</v>
       </c>
       <c r="N8">
-        <v>1.017679042806387</v>
+        <v>1.020506385693599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010131206219043</v>
+        <v>1.042784682627534</v>
       </c>
       <c r="D9">
-        <v>1.026628686090473</v>
+        <v>1.044649634180904</v>
       </c>
       <c r="E9">
-        <v>1.023531858662006</v>
+        <v>1.051090862589609</v>
       </c>
       <c r="F9">
-        <v>1.029718034229647</v>
+        <v>1.062428642464861</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05163238465164</v>
+        <v>1.045054840769236</v>
       </c>
       <c r="J9">
-        <v>1.035331208919326</v>
+        <v>1.048541823598763</v>
       </c>
       <c r="K9">
-        <v>1.03930401544969</v>
+        <v>1.047784251530519</v>
       </c>
       <c r="L9">
-        <v>1.036254345925263</v>
+        <v>1.054204985323632</v>
       </c>
       <c r="M9">
-        <v>1.042346679435601</v>
+        <v>1.065507350184254</v>
       </c>
       <c r="N9">
-        <v>1.015183834966044</v>
+        <v>1.020002983066026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002082622611586</v>
+        <v>1.041254330897243</v>
       </c>
       <c r="D10">
-        <v>1.020705005115019</v>
+        <v>1.043498374906441</v>
       </c>
       <c r="E10">
-        <v>1.016594492178283</v>
+        <v>1.049683135836195</v>
       </c>
       <c r="F10">
-        <v>1.021716892451486</v>
+        <v>1.060781121439832</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048505123161497</v>
+        <v>1.044569106774361</v>
       </c>
       <c r="J10">
-        <v>1.030213854344789</v>
+        <v>1.047550213899362</v>
       </c>
       <c r="K10">
-        <v>1.034710223463763</v>
+        <v>1.0469173948703</v>
       </c>
       <c r="L10">
-        <v>1.030670455453715</v>
+        <v>1.053080548119266</v>
       </c>
       <c r="M10">
-        <v>1.035704808270987</v>
+        <v>1.064140455350129</v>
       </c>
       <c r="N10">
-        <v>1.013426047097779</v>
+        <v>1.019666186786628</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9984919050736223</v>
+        <v>1.040591936634627</v>
       </c>
       <c r="D11">
-        <v>1.018067431198493</v>
+        <v>1.043000030260387</v>
       </c>
       <c r="E11">
-        <v>1.013508382823716</v>
+        <v>1.049074293027108</v>
       </c>
       <c r="F11">
-        <v>1.018157714426647</v>
+        <v>1.060068769096338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047098411978976</v>
+        <v>1.044357331595211</v>
       </c>
       <c r="J11">
-        <v>1.027927557418272</v>
+        <v>1.047120358705439</v>
       </c>
       <c r="K11">
-        <v>1.032656480324904</v>
+        <v>1.046541376056247</v>
       </c>
       <c r="L11">
-        <v>1.028179969208684</v>
+        <v>1.05259359522119</v>
       </c>
       <c r="M11">
-        <v>1.032745138760297</v>
+        <v>1.063548880571527</v>
       </c>
       <c r="N11">
-        <v>1.012640499781026</v>
+        <v>1.019520070206491</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9971413322610441</v>
+        <v>1.040345932933205</v>
       </c>
       <c r="D12">
-        <v>1.017076218586177</v>
+        <v>1.042814947480913</v>
       </c>
       <c r="E12">
-        <v>1.012349001148323</v>
+        <v>1.048848249387299</v>
       </c>
       <c r="F12">
-        <v>1.016820609436192</v>
+        <v>1.059804325776762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046567625876977</v>
+        <v>1.04427845142779</v>
       </c>
       <c r="J12">
-        <v>1.02706717072969</v>
+        <v>1.046960619438143</v>
       </c>
       <c r="K12">
-        <v>1.031883418069582</v>
+        <v>1.046401606649942</v>
       </c>
       <c r="L12">
-        <v>1.027243377292176</v>
+        <v>1.052412710103866</v>
       </c>
       <c r="M12">
-        <v>1.031632495719901</v>
+        <v>1.063329188894875</v>
       </c>
       <c r="N12">
-        <v>1.012344856187664</v>
+        <v>1.019465753941381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9974318119493898</v>
+        <v>1.040398699792586</v>
       </c>
       <c r="D13">
-        <v>1.017289367514774</v>
+        <v>1.042854647238206</v>
       </c>
       <c r="E13">
-        <v>1.012598295674731</v>
+        <v>1.048896731631093</v>
       </c>
       <c r="F13">
-        <v>1.01710811920173</v>
+        <v>1.059861042695793</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04668186182894</v>
+        <v>1.044295381326373</v>
       </c>
       <c r="J13">
-        <v>1.027252240972474</v>
+        <v>1.046994887299958</v>
       </c>
       <c r="K13">
-        <v>1.032049713124758</v>
+        <v>1.046431592146391</v>
       </c>
       <c r="L13">
-        <v>1.02744481067451</v>
+        <v>1.052451510980459</v>
       </c>
       <c r="M13">
-        <v>1.031871774909484</v>
+        <v>1.06337631143648</v>
       </c>
       <c r="N13">
-        <v>1.012408450432187</v>
+        <v>1.019477406864122</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9983806151936213</v>
+        <v>1.040571601094514</v>
       </c>
       <c r="D14">
-        <v>1.01798573545592</v>
+        <v>1.042984730753184</v>
       </c>
       <c r="E14">
-        <v>1.013412818787357</v>
+        <v>1.049055605988501</v>
       </c>
       <c r="F14">
-        <v>1.018047501432596</v>
+        <v>1.060046906942361</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047054707999123</v>
+        <v>1.044350815769963</v>
       </c>
       <c r="J14">
-        <v>1.02785666857696</v>
+        <v>1.047107156072064</v>
       </c>
       <c r="K14">
-        <v>1.03259279010519</v>
+        <v>1.0465298246958</v>
       </c>
       <c r="L14">
-        <v>1.028102788768104</v>
+        <v>1.052578643384237</v>
       </c>
       <c r="M14">
-        <v>1.032653442778959</v>
+        <v>1.063530719857127</v>
       </c>
       <c r="N14">
-        <v>1.012616141597649</v>
+        <v>1.019515581263717</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9989629456336404</v>
+        <v>1.040678136470963</v>
       </c>
       <c r="D15">
-        <v>1.018413248275898</v>
+        <v>1.043064882786376</v>
       </c>
       <c r="E15">
-        <v>1.013912920038267</v>
+        <v>1.049153508014128</v>
       </c>
       <c r="F15">
-        <v>1.01862426268515</v>
+        <v>1.060161444734464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047283323301398</v>
+        <v>1.044384941956259</v>
       </c>
       <c r="J15">
-        <v>1.02822758055522</v>
+        <v>1.047176319052863</v>
       </c>
       <c r="K15">
-        <v>1.03292602900692</v>
+        <v>1.046590335871631</v>
       </c>
       <c r="L15">
-        <v>1.028506646204521</v>
+        <v>1.052656972659701</v>
       </c>
       <c r="M15">
-        <v>1.033133270787999</v>
+        <v>1.063625862030445</v>
       </c>
       <c r="N15">
-        <v>1.012743590099348</v>
+        <v>1.019539096204895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.0023186217139</v>
+        <v>1.041298297281815</v>
       </c>
       <c r="D16">
-        <v>1.020878473146295</v>
+        <v>1.043531451804551</v>
       </c>
       <c r="E16">
-        <v>1.01679751564417</v>
+        <v>1.049723557791911</v>
       </c>
       <c r="F16">
-        <v>1.021951038434438</v>
+        <v>1.060828419773971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048597343021951</v>
+        <v>1.04458313108758</v>
       </c>
       <c r="J16">
-        <v>1.030364056370964</v>
+        <v>1.047578731863739</v>
       </c>
       <c r="K16">
-        <v>1.034845120304196</v>
+        <v>1.046942336050679</v>
       </c>
       <c r="L16">
-        <v>1.030834160211836</v>
+        <v>1.053112864271002</v>
       </c>
       <c r="M16">
-        <v>1.035899408530399</v>
+        <v>1.064179722577669</v>
       </c>
       <c r="N16">
-        <v>1.013477651150634</v>
+        <v>1.019675878151074</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004394620105446</v>
+        <v>1.041687377051612</v>
       </c>
       <c r="D17">
-        <v>1.022405004487633</v>
+        <v>1.04382416117587</v>
       </c>
       <c r="E17">
-        <v>1.018584454075838</v>
+        <v>1.050081326112894</v>
       </c>
       <c r="F17">
-        <v>1.024011920602325</v>
+        <v>1.061247073110523</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049407261048145</v>
+        <v>1.044707062112599</v>
       </c>
       <c r="J17">
-        <v>1.031684960789001</v>
+        <v>1.0478310261566</v>
       </c>
       <c r="K17">
-        <v>1.036031275125854</v>
+        <v>1.047162959005741</v>
       </c>
       <c r="L17">
-        <v>1.032274292396966</v>
+        <v>1.053398816214884</v>
       </c>
       <c r="M17">
-        <v>1.037611637124731</v>
+        <v>1.064527225263914</v>
       </c>
       <c r="N17">
-        <v>1.013931443340676</v>
+        <v>1.019761602638409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005595391262116</v>
+        <v>1.041914345588711</v>
       </c>
       <c r="D18">
-        <v>1.023288443860089</v>
+        <v>1.043994908809226</v>
       </c>
       <c r="E18">
-        <v>1.019618866546431</v>
+        <v>1.050290074988554</v>
       </c>
       <c r="F18">
-        <v>1.025204928486088</v>
+        <v>1.061491366357463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049874625154524</v>
+        <v>1.044779209141336</v>
       </c>
       <c r="J18">
-        <v>1.032448665411093</v>
+        <v>1.047978138646354</v>
       </c>
       <c r="K18">
-        <v>1.036716942157891</v>
+        <v>1.047291580527009</v>
       </c>
       <c r="L18">
-        <v>1.033107332946033</v>
+        <v>1.053565600920124</v>
       </c>
       <c r="M18">
-        <v>1.03860232675996</v>
+        <v>1.06472994658441</v>
       </c>
       <c r="N18">
-        <v>1.01419379054688</v>
+        <v>1.019811577098059</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00600313376903</v>
+        <v>1.04199174020905</v>
       </c>
       <c r="D19">
-        <v>1.023588510614239</v>
+        <v>1.044053131893865</v>
       </c>
       <c r="E19">
-        <v>1.01997025903113</v>
+        <v>1.050361264586632</v>
       </c>
       <c r="F19">
-        <v>1.025610199755792</v>
+        <v>1.061574680959533</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050033138916323</v>
+        <v>1.044803785685602</v>
       </c>
       <c r="J19">
-        <v>1.03270793954206</v>
+        <v>1.048028292302178</v>
       </c>
       <c r="K19">
-        <v>1.036949700506158</v>
+        <v>1.047335426251356</v>
       </c>
       <c r="L19">
-        <v>1.033390214596617</v>
+        <v>1.053622469122996</v>
       </c>
       <c r="M19">
-        <v>1.038938786133152</v>
+        <v>1.064799074199513</v>
       </c>
       <c r="N19">
-        <v>1.014282852399197</v>
+        <v>1.019828612479223</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004172938897334</v>
+        <v>1.04164562989822</v>
       </c>
       <c r="D20">
-        <v>1.022241946249179</v>
+        <v>1.043792754651213</v>
       </c>
       <c r="E20">
-        <v>1.018393552409518</v>
+        <v>1.050042933850323</v>
       </c>
       <c r="F20">
-        <v>1.02379175153023</v>
+        <v>1.06120214523883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049320889172133</v>
+        <v>1.044693779948867</v>
       </c>
       <c r="J20">
-        <v>1.03154394309521</v>
+        <v>1.047803962173339</v>
       </c>
       <c r="K20">
-        <v>1.035904656455536</v>
+        <v>1.047139294878713</v>
       </c>
       <c r="L20">
-        <v>1.032120504399955</v>
+        <v>1.053368136917736</v>
       </c>
       <c r="M20">
-        <v>1.037428766199451</v>
+        <v>1.064489938523181</v>
       </c>
       <c r="N20">
-        <v>1.013882999305223</v>
+        <v>1.019752408022162</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981016886185724</v>
+        <v>1.040520684891441</v>
       </c>
       <c r="D21">
-        <v>1.017780994921546</v>
+        <v>1.042946423714141</v>
       </c>
       <c r="E21">
-        <v>1.013173328659456</v>
+        <v>1.049008818471784</v>
       </c>
       <c r="F21">
-        <v>1.017771299874557</v>
+        <v>1.059992170241953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046945145528086</v>
+        <v>1.044334497708028</v>
       </c>
       <c r="J21">
-        <v>1.0276789924174</v>
+        <v>1.047074097698292</v>
       </c>
       <c r="K21">
-        <v>1.032433153579339</v>
+        <v>1.046500900394829</v>
       </c>
       <c r="L21">
-        <v>1.027909353546474</v>
+        <v>1.052541206307916</v>
       </c>
       <c r="M21">
-        <v>1.032423633959623</v>
+        <v>1.063485249164658</v>
       </c>
       <c r="N21">
-        <v>1.012555089764976</v>
+        <v>1.019504341013671</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9941866090604413</v>
+        <v>1.039813613200806</v>
       </c>
       <c r="D22">
-        <v>1.014909353206919</v>
+        <v>1.042414444669891</v>
       </c>
       <c r="E22">
-        <v>1.00981519258609</v>
+        <v>1.048359252484754</v>
       </c>
       <c r="F22">
-        <v>1.013898356640183</v>
+        <v>1.059232314113431</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045403363911032</v>
+        <v>1.0441073448238</v>
       </c>
       <c r="J22">
-        <v>1.025184095329585</v>
+        <v>1.046614787117437</v>
       </c>
       <c r="K22">
-        <v>1.03019112814424</v>
+        <v>1.046098942313046</v>
       </c>
       <c r="L22">
-        <v>1.025194684401582</v>
+        <v>1.052021229647478</v>
       </c>
       <c r="M22">
-        <v>1.029199422456211</v>
+        <v>1.062853824800302</v>
       </c>
       <c r="N22">
-        <v>1.011697764781333</v>
+        <v>1.01934812820492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.996271678326235</v>
+        <v>1.040188423790122</v>
       </c>
       <c r="D23">
-        <v>1.016438213436993</v>
+        <v>1.042696443009675</v>
       </c>
       <c r="E23">
-        <v>1.01160285878897</v>
+        <v>1.048703540382</v>
       </c>
       <c r="F23">
-        <v>1.01596008594606</v>
+        <v>1.059635042431807</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046225377901135</v>
+        <v>1.044227882003149</v>
       </c>
       <c r="J23">
-        <v>1.026513036234633</v>
+        <v>1.046858315609521</v>
       </c>
       <c r="K23">
-        <v>1.031385473025025</v>
+        <v>1.046312082149319</v>
       </c>
       <c r="L23">
-        <v>1.026640341601193</v>
+        <v>1.052296883924819</v>
       </c>
       <c r="M23">
-        <v>1.030916217046391</v>
+        <v>1.063188529635336</v>
       </c>
       <c r="N23">
-        <v>1.012154440430414</v>
+        <v>1.019430962545756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004273138308309</v>
+        <v>1.041664493562865</v>
       </c>
       <c r="D24">
-        <v>1.022315646715122</v>
+        <v>1.043806945860877</v>
       </c>
       <c r="E24">
-        <v>1.01847983694994</v>
+        <v>1.050060281449044</v>
       </c>
       <c r="F24">
-        <v>1.023891264423214</v>
+        <v>1.061222445901636</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049359932475783</v>
+        <v>1.044699782019004</v>
       </c>
       <c r="J24">
-        <v>1.031607683759136</v>
+        <v>1.047816191366089</v>
       </c>
       <c r="K24">
-        <v>1.035961889096089</v>
+        <v>1.047149987877213</v>
       </c>
       <c r="L24">
-        <v>1.032190016053427</v>
+        <v>1.053381999590768</v>
       </c>
       <c r="M24">
-        <v>1.037511422444319</v>
+        <v>1.064506786707061</v>
       </c>
       <c r="N24">
-        <v>1.013904896303621</v>
+        <v>1.019756562757467</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013164052929927</v>
+        <v>1.043378365836823</v>
       </c>
       <c r="D25">
-        <v>1.028864797269918</v>
+        <v>1.045096216142378</v>
       </c>
       <c r="E25">
-        <v>1.026153248441281</v>
+        <v>1.051637395047453</v>
       </c>
       <c r="F25">
-        <v>1.032741677761888</v>
+        <v>1.063068453735587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052800502667053</v>
+        <v>1.045241908970701</v>
       </c>
       <c r="J25">
-        <v>1.037256373049972</v>
+        <v>1.048925926964464</v>
       </c>
       <c r="K25">
-        <v>1.041030959915529</v>
+        <v>1.048119813825468</v>
       </c>
       <c r="L25">
-        <v>1.038358695138001</v>
+        <v>1.054640969803992</v>
       </c>
       <c r="M25">
-        <v>1.044852126984678</v>
+        <v>1.066037681790218</v>
       </c>
       <c r="N25">
-        <v>1.015844882715003</v>
+        <v>1.020133336436214</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044746123766386</v>
+        <v>1.019968774645888</v>
       </c>
       <c r="D2">
-        <v>1.046124982441258</v>
+        <v>1.033889327723357</v>
       </c>
       <c r="E2">
-        <v>1.052897441569706</v>
+        <v>1.032049704685202</v>
       </c>
       <c r="F2">
-        <v>1.064543961853475</v>
+        <v>1.039543971989009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045669872579522</v>
+        <v>1.055398134367337</v>
       </c>
       <c r="J2">
-        <v>1.04980955987066</v>
+        <v>1.041568196883513</v>
       </c>
       <c r="K2">
-        <v>1.048891295850239</v>
+        <v>1.044895887815079</v>
       </c>
       <c r="L2">
-        <v>1.055644903836449</v>
+        <v>1.043079888039013</v>
       </c>
       <c r="M2">
-        <v>1.067259613238838</v>
+        <v>1.050478572168183</v>
       </c>
       <c r="N2">
-        <v>1.020432980523155</v>
+        <v>1.017324791557727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045739685798793</v>
+        <v>1.024757345622892</v>
       </c>
       <c r="D3">
-        <v>1.046872203366356</v>
+        <v>1.037430968996806</v>
       </c>
       <c r="E3">
-        <v>1.05381357995693</v>
+        <v>1.036211844552751</v>
       </c>
       <c r="F3">
-        <v>1.065617123146953</v>
+        <v>1.044346706504913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045978034621589</v>
+        <v>1.057204709821962</v>
       </c>
       <c r="J3">
-        <v>1.050450284518014</v>
+        <v>1.044595122247875</v>
       </c>
       <c r="K3">
-        <v>1.049450263464028</v>
+        <v>1.047606307669285</v>
       </c>
       <c r="L3">
-        <v>1.056373714702255</v>
+        <v>1.046401440696605</v>
       </c>
       <c r="M3">
-        <v>1.06814735425734</v>
+        <v>1.054441944659093</v>
       </c>
       <c r="N3">
-        <v>1.020650040175898</v>
+        <v>1.018363016315435</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04638279349944</v>
+        <v>1.027789636255877</v>
       </c>
       <c r="D4">
-        <v>1.047355814031524</v>
+        <v>1.039675988229016</v>
       </c>
       <c r="E4">
-        <v>1.054406949553625</v>
+        <v>1.038853076129969</v>
       </c>
       <c r="F4">
-        <v>1.066312365911983</v>
+        <v>1.047395118763488</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04617624167151</v>
+        <v>1.058338530979262</v>
       </c>
       <c r="J4">
-        <v>1.050864470575411</v>
+        <v>1.046508237539183</v>
       </c>
       <c r="K4">
-        <v>1.049811396221749</v>
+        <v>1.049318027667308</v>
       </c>
       <c r="L4">
-        <v>1.056845239182677</v>
+        <v>1.0485041462425</v>
       </c>
       <c r="M4">
-        <v>1.068722015647432</v>
+        <v>1.056953295091867</v>
       </c>
       <c r="N4">
-        <v>1.020790255574705</v>
+        <v>1.019018850526906</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046653205014375</v>
+        <v>1.029049141739159</v>
       </c>
       <c r="D5">
-        <v>1.047559149055476</v>
+        <v>1.040608996525173</v>
       </c>
       <c r="E5">
-        <v>1.054656537009399</v>
+        <v>1.039951460216149</v>
       </c>
       <c r="F5">
-        <v>1.066604845329782</v>
+        <v>1.048663010690316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046259281601756</v>
+        <v>1.058807002840052</v>
       </c>
       <c r="J5">
-        <v>1.051038496709283</v>
+        <v>1.047301970454039</v>
       </c>
       <c r="K5">
-        <v>1.049963082554154</v>
+        <v>1.050027869063693</v>
       </c>
       <c r="L5">
-        <v>1.057043451908691</v>
+        <v>1.049377352514034</v>
       </c>
       <c r="M5">
-        <v>1.068963658566696</v>
+        <v>1.057996772772365</v>
       </c>
       <c r="N5">
-        <v>1.020849145179868</v>
+        <v>1.019290857623685</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046698611160803</v>
+        <v>1.029259739341677</v>
       </c>
       <c r="D6">
-        <v>1.047593291345358</v>
+        <v>1.040765030016602</v>
       </c>
       <c r="E6">
-        <v>1.054698451727066</v>
+        <v>1.040135193247449</v>
       </c>
       <c r="F6">
-        <v>1.066653965581374</v>
+        <v>1.048875109187726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046273207571091</v>
+        <v>1.058885187707195</v>
       </c>
       <c r="J6">
-        <v>1.051067710717957</v>
+        <v>1.047434633535351</v>
       </c>
       <c r="K6">
-        <v>1.049988543488324</v>
+        <v>1.05014649071368</v>
       </c>
       <c r="L6">
-        <v>1.05707673173128</v>
+        <v>1.049523346627592</v>
       </c>
       <c r="M6">
-        <v>1.069004234698379</v>
+        <v>1.058171268883359</v>
       </c>
       <c r="N6">
-        <v>1.0208590296561</v>
+        <v>1.019336314796856</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046386406559177</v>
+        <v>1.027806525073309</v>
       </c>
       <c r="D7">
-        <v>1.047358530906614</v>
+        <v>1.039688497079464</v>
       </c>
       <c r="E7">
-        <v>1.054410284024466</v>
+        <v>1.038867799326718</v>
       </c>
       <c r="F7">
-        <v>1.066316273253795</v>
+        <v>1.047412113391019</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046177352380599</v>
+        <v>1.058344822595421</v>
       </c>
       <c r="J7">
-        <v>1.050866796305678</v>
+        <v>1.046518884399649</v>
       </c>
       <c r="K7">
-        <v>1.049813423588763</v>
+        <v>1.049327550571219</v>
       </c>
       <c r="L7">
-        <v>1.05684788777513</v>
+        <v>1.048515855906968</v>
       </c>
       <c r="M7">
-        <v>1.068725244275577</v>
+        <v>1.056967285824534</v>
       </c>
       <c r="N7">
-        <v>1.020791042684609</v>
+        <v>1.019022499509117</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045081859664116</v>
+        <v>1.021601172664786</v>
       </c>
       <c r="D8">
-        <v>1.046377486168294</v>
+        <v>1.035096133616685</v>
       </c>
       <c r="E8">
-        <v>1.053206936976639</v>
+        <v>1.033467353043983</v>
       </c>
       <c r="F8">
-        <v>1.064906468291165</v>
+        <v>1.041179680863527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045774264468042</v>
+        <v>1.056016095897955</v>
       </c>
       <c r="J8">
-        <v>1.050026179408065</v>
+        <v>1.042600802249662</v>
       </c>
       <c r="K8">
-        <v>1.049080316465524</v>
+        <v>1.045820798827576</v>
       </c>
       <c r="L8">
-        <v>1.055891221934982</v>
+        <v>1.044212295586407</v>
       </c>
       <c r="M8">
-        <v>1.067559580714132</v>
+        <v>1.051829307339472</v>
       </c>
       <c r="N8">
-        <v>1.020506385693599</v>
+        <v>1.017679042806387</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042784682627534</v>
+        <v>1.010131206219044</v>
       </c>
       <c r="D9">
-        <v>1.044649634180904</v>
+        <v>1.026628686090473</v>
       </c>
       <c r="E9">
-        <v>1.051090862589609</v>
+        <v>1.023531858662007</v>
       </c>
       <c r="F9">
-        <v>1.062428642464861</v>
+        <v>1.029718034229647</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045054840769236</v>
+        <v>1.051632384651641</v>
       </c>
       <c r="J9">
-        <v>1.048541823598763</v>
+        <v>1.035331208919326</v>
       </c>
       <c r="K9">
-        <v>1.047784251530519</v>
+        <v>1.039304015449691</v>
       </c>
       <c r="L9">
-        <v>1.054204985323632</v>
+        <v>1.036254345925263</v>
       </c>
       <c r="M9">
-        <v>1.065507350184254</v>
+        <v>1.042346679435601</v>
       </c>
       <c r="N9">
-        <v>1.020002983066026</v>
+        <v>1.015183834966044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041254330897243</v>
+        <v>1.002082622611586</v>
       </c>
       <c r="D10">
-        <v>1.043498374906441</v>
+        <v>1.020705005115019</v>
       </c>
       <c r="E10">
-        <v>1.049683135836195</v>
+        <v>1.016594492178283</v>
       </c>
       <c r="F10">
-        <v>1.060781121439832</v>
+        <v>1.021716892451486</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044569106774361</v>
+        <v>1.048505123161497</v>
       </c>
       <c r="J10">
-        <v>1.047550213899362</v>
+        <v>1.030213854344789</v>
       </c>
       <c r="K10">
-        <v>1.0469173948703</v>
+        <v>1.034710223463763</v>
       </c>
       <c r="L10">
-        <v>1.053080548119266</v>
+        <v>1.030670455453714</v>
       </c>
       <c r="M10">
-        <v>1.064140455350129</v>
+        <v>1.035704808270986</v>
       </c>
       <c r="N10">
-        <v>1.019666186786628</v>
+        <v>1.013426047097778</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040591936634627</v>
+        <v>0.9984919050736236</v>
       </c>
       <c r="D11">
-        <v>1.043000030260387</v>
+        <v>1.018067431198494</v>
       </c>
       <c r="E11">
-        <v>1.049074293027108</v>
+        <v>1.013508382823718</v>
       </c>
       <c r="F11">
-        <v>1.060068769096338</v>
+        <v>1.018157714426648</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044357331595211</v>
+        <v>1.047098411978977</v>
       </c>
       <c r="J11">
-        <v>1.047120358705439</v>
+        <v>1.027927557418273</v>
       </c>
       <c r="K11">
-        <v>1.046541376056247</v>
+        <v>1.032656480324905</v>
       </c>
       <c r="L11">
-        <v>1.05259359522119</v>
+        <v>1.028179969208685</v>
       </c>
       <c r="M11">
-        <v>1.063548880571527</v>
+        <v>1.032745138760297</v>
       </c>
       <c r="N11">
-        <v>1.019520070206491</v>
+        <v>1.012640499781026</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040345932933205</v>
+        <v>0.9971413322610427</v>
       </c>
       <c r="D12">
-        <v>1.042814947480913</v>
+        <v>1.017076218586176</v>
       </c>
       <c r="E12">
-        <v>1.048848249387299</v>
+        <v>1.012349001148321</v>
       </c>
       <c r="F12">
-        <v>1.059804325776762</v>
+        <v>1.016820609436191</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04427845142779</v>
+        <v>1.046567625876977</v>
       </c>
       <c r="J12">
-        <v>1.046960619438143</v>
+        <v>1.027067170729689</v>
       </c>
       <c r="K12">
-        <v>1.046401606649942</v>
+        <v>1.03188341806958</v>
       </c>
       <c r="L12">
-        <v>1.052412710103866</v>
+        <v>1.027243377292174</v>
       </c>
       <c r="M12">
-        <v>1.063329188894875</v>
+        <v>1.0316324957199</v>
       </c>
       <c r="N12">
-        <v>1.019465753941381</v>
+        <v>1.012344856187663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040398699792586</v>
+        <v>0.9974318119493896</v>
       </c>
       <c r="D13">
-        <v>1.042854647238206</v>
+        <v>1.017289367514774</v>
       </c>
       <c r="E13">
-        <v>1.048896731631093</v>
+        <v>1.012598295674731</v>
       </c>
       <c r="F13">
-        <v>1.059861042695793</v>
+        <v>1.01710811920173</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044295381326373</v>
+        <v>1.04668186182894</v>
       </c>
       <c r="J13">
-        <v>1.046994887299958</v>
+        <v>1.027252240972473</v>
       </c>
       <c r="K13">
-        <v>1.046431592146391</v>
+        <v>1.032049713124758</v>
       </c>
       <c r="L13">
-        <v>1.052451510980459</v>
+        <v>1.02744481067451</v>
       </c>
       <c r="M13">
-        <v>1.06337631143648</v>
+        <v>1.031871774909484</v>
       </c>
       <c r="N13">
-        <v>1.019477406864122</v>
+        <v>1.012408450432187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040571601094514</v>
+        <v>0.9983806151936212</v>
       </c>
       <c r="D14">
-        <v>1.042984730753184</v>
+        <v>1.01798573545592</v>
       </c>
       <c r="E14">
-        <v>1.049055605988501</v>
+        <v>1.013412818787357</v>
       </c>
       <c r="F14">
-        <v>1.060046906942361</v>
+        <v>1.018047501432596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044350815769963</v>
+        <v>1.047054707999123</v>
       </c>
       <c r="J14">
-        <v>1.047107156072064</v>
+        <v>1.02785666857696</v>
       </c>
       <c r="K14">
-        <v>1.0465298246958</v>
+        <v>1.03259279010519</v>
       </c>
       <c r="L14">
-        <v>1.052578643384237</v>
+        <v>1.028102788768104</v>
       </c>
       <c r="M14">
-        <v>1.063530719857127</v>
+        <v>1.032653442778959</v>
       </c>
       <c r="N14">
-        <v>1.019515581263717</v>
+        <v>1.012616141597649</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040678136470963</v>
+        <v>0.99896294563364</v>
       </c>
       <c r="D15">
-        <v>1.043064882786376</v>
+        <v>1.018413248275898</v>
       </c>
       <c r="E15">
-        <v>1.049153508014128</v>
+        <v>1.013912920038266</v>
       </c>
       <c r="F15">
-        <v>1.060161444734464</v>
+        <v>1.018624262685149</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044384941956259</v>
+        <v>1.047283323301398</v>
       </c>
       <c r="J15">
-        <v>1.047176319052863</v>
+        <v>1.028227580555219</v>
       </c>
       <c r="K15">
-        <v>1.046590335871631</v>
+        <v>1.03292602900692</v>
       </c>
       <c r="L15">
-        <v>1.052656972659701</v>
+        <v>1.02850664620452</v>
       </c>
       <c r="M15">
-        <v>1.063625862030445</v>
+        <v>1.033133270787998</v>
       </c>
       <c r="N15">
-        <v>1.019539096204895</v>
+        <v>1.012743590099348</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041298297281815</v>
+        <v>1.002318621713899</v>
       </c>
       <c r="D16">
-        <v>1.043531451804551</v>
+        <v>1.020878473146295</v>
       </c>
       <c r="E16">
-        <v>1.049723557791911</v>
+        <v>1.01679751564417</v>
       </c>
       <c r="F16">
-        <v>1.060828419773971</v>
+        <v>1.021951038434438</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04458313108758</v>
+        <v>1.048597343021951</v>
       </c>
       <c r="J16">
-        <v>1.047578731863739</v>
+        <v>1.030364056370964</v>
       </c>
       <c r="K16">
-        <v>1.046942336050679</v>
+        <v>1.034845120304195</v>
       </c>
       <c r="L16">
-        <v>1.053112864271002</v>
+        <v>1.030834160211836</v>
       </c>
       <c r="M16">
-        <v>1.064179722577669</v>
+        <v>1.035899408530398</v>
       </c>
       <c r="N16">
-        <v>1.019675878151074</v>
+        <v>1.013477651150634</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041687377051612</v>
+        <v>1.004394620105447</v>
       </c>
       <c r="D17">
-        <v>1.04382416117587</v>
+        <v>1.022405004487633</v>
       </c>
       <c r="E17">
-        <v>1.050081326112894</v>
+        <v>1.018584454075838</v>
       </c>
       <c r="F17">
-        <v>1.061247073110523</v>
+        <v>1.024011920602325</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044707062112599</v>
+        <v>1.049407261048145</v>
       </c>
       <c r="J17">
-        <v>1.0478310261566</v>
+        <v>1.031684960789001</v>
       </c>
       <c r="K17">
-        <v>1.047162959005741</v>
+        <v>1.036031275125854</v>
       </c>
       <c r="L17">
-        <v>1.053398816214884</v>
+        <v>1.032274292396966</v>
       </c>
       <c r="M17">
-        <v>1.064527225263914</v>
+        <v>1.037611637124732</v>
       </c>
       <c r="N17">
-        <v>1.019761602638409</v>
+        <v>1.013931443340676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041914345588711</v>
+        <v>1.005595391262118</v>
       </c>
       <c r="D18">
-        <v>1.043994908809226</v>
+        <v>1.02328844386009</v>
       </c>
       <c r="E18">
-        <v>1.050290074988554</v>
+        <v>1.019618866546432</v>
       </c>
       <c r="F18">
-        <v>1.061491366357463</v>
+        <v>1.02520492848609</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044779209141336</v>
+        <v>1.049874625154525</v>
       </c>
       <c r="J18">
-        <v>1.047978138646354</v>
+        <v>1.032448665411095</v>
       </c>
       <c r="K18">
-        <v>1.047291580527009</v>
+        <v>1.036716942157893</v>
       </c>
       <c r="L18">
-        <v>1.053565600920124</v>
+        <v>1.033107332946034</v>
       </c>
       <c r="M18">
-        <v>1.06472994658441</v>
+        <v>1.038602326759962</v>
       </c>
       <c r="N18">
-        <v>1.019811577098059</v>
+        <v>1.01419379054688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04199174020905</v>
+        <v>1.006003133769031</v>
       </c>
       <c r="D19">
-        <v>1.044053131893865</v>
+        <v>1.023588510614241</v>
       </c>
       <c r="E19">
-        <v>1.050361264586632</v>
+        <v>1.019970259031131</v>
       </c>
       <c r="F19">
-        <v>1.061574680959533</v>
+        <v>1.025610199755794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044803785685602</v>
+        <v>1.050033138916324</v>
       </c>
       <c r="J19">
-        <v>1.048028292302178</v>
+        <v>1.032707939542061</v>
       </c>
       <c r="K19">
-        <v>1.047335426251356</v>
+        <v>1.036949700506159</v>
       </c>
       <c r="L19">
-        <v>1.053622469122996</v>
+        <v>1.033390214596618</v>
       </c>
       <c r="M19">
-        <v>1.064799074199513</v>
+        <v>1.038938786133154</v>
       </c>
       <c r="N19">
-        <v>1.019828612479223</v>
+        <v>1.014282852399197</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04164562989822</v>
+        <v>1.004172938897334</v>
       </c>
       <c r="D20">
-        <v>1.043792754651213</v>
+        <v>1.022241946249178</v>
       </c>
       <c r="E20">
-        <v>1.050042933850323</v>
+        <v>1.018393552409518</v>
       </c>
       <c r="F20">
-        <v>1.06120214523883</v>
+        <v>1.02379175153023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044693779948867</v>
+        <v>1.049320889172133</v>
       </c>
       <c r="J20">
-        <v>1.047803962173339</v>
+        <v>1.03154394309521</v>
       </c>
       <c r="K20">
-        <v>1.047139294878713</v>
+        <v>1.035904656455535</v>
       </c>
       <c r="L20">
-        <v>1.053368136917736</v>
+        <v>1.032120504399955</v>
       </c>
       <c r="M20">
-        <v>1.064489938523181</v>
+        <v>1.03742876619945</v>
       </c>
       <c r="N20">
-        <v>1.019752408022162</v>
+        <v>1.013882999305223</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040520684891441</v>
+        <v>0.9981016886185728</v>
       </c>
       <c r="D21">
-        <v>1.042946423714141</v>
+        <v>1.017780994921546</v>
       </c>
       <c r="E21">
-        <v>1.049008818471784</v>
+        <v>1.013173328659456</v>
       </c>
       <c r="F21">
-        <v>1.059992170241953</v>
+        <v>1.017771299874557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044334497708028</v>
+        <v>1.046945145528086</v>
       </c>
       <c r="J21">
-        <v>1.047074097698292</v>
+        <v>1.0276789924174</v>
       </c>
       <c r="K21">
-        <v>1.046500900394829</v>
+        <v>1.032433153579339</v>
       </c>
       <c r="L21">
-        <v>1.052541206307916</v>
+        <v>1.027909353546474</v>
       </c>
       <c r="M21">
-        <v>1.063485249164658</v>
+        <v>1.032423633959623</v>
       </c>
       <c r="N21">
-        <v>1.019504341013671</v>
+        <v>1.012555089764976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039813613200806</v>
+        <v>0.9941866090604423</v>
       </c>
       <c r="D22">
-        <v>1.042414444669891</v>
+        <v>1.01490935320692</v>
       </c>
       <c r="E22">
-        <v>1.048359252484754</v>
+        <v>1.009815192586091</v>
       </c>
       <c r="F22">
-        <v>1.059232314113431</v>
+        <v>1.013898356640184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0441073448238</v>
+        <v>1.045403363911033</v>
       </c>
       <c r="J22">
-        <v>1.046614787117437</v>
+        <v>1.025184095329587</v>
       </c>
       <c r="K22">
-        <v>1.046098942313046</v>
+        <v>1.030191128144241</v>
       </c>
       <c r="L22">
-        <v>1.052021229647478</v>
+        <v>1.025194684401583</v>
       </c>
       <c r="M22">
-        <v>1.062853824800302</v>
+        <v>1.029199422456212</v>
       </c>
       <c r="N22">
-        <v>1.01934812820492</v>
+        <v>1.011697764781333</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040188423790122</v>
+        <v>0.9962716783262335</v>
       </c>
       <c r="D23">
-        <v>1.042696443009675</v>
+        <v>1.016438213436992</v>
       </c>
       <c r="E23">
-        <v>1.048703540382</v>
+        <v>1.011602858788968</v>
       </c>
       <c r="F23">
-        <v>1.059635042431807</v>
+        <v>1.015960085946058</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044227882003149</v>
+        <v>1.046225377901134</v>
       </c>
       <c r="J23">
-        <v>1.046858315609521</v>
+        <v>1.026513036234632</v>
       </c>
       <c r="K23">
-        <v>1.046312082149319</v>
+        <v>1.031385473025024</v>
       </c>
       <c r="L23">
-        <v>1.052296883924819</v>
+        <v>1.026640341601192</v>
       </c>
       <c r="M23">
-        <v>1.063188529635336</v>
+        <v>1.030916217046389</v>
       </c>
       <c r="N23">
-        <v>1.019430962545756</v>
+        <v>1.012154440430413</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041664493562865</v>
+        <v>1.004273138308309</v>
       </c>
       <c r="D24">
-        <v>1.043806945860877</v>
+        <v>1.022315646715122</v>
       </c>
       <c r="E24">
-        <v>1.050060281449044</v>
+        <v>1.01847983694994</v>
       </c>
       <c r="F24">
-        <v>1.061222445901636</v>
+        <v>1.023891264423215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044699782019004</v>
+        <v>1.049359932475784</v>
       </c>
       <c r="J24">
-        <v>1.047816191366089</v>
+        <v>1.031607683759137</v>
       </c>
       <c r="K24">
-        <v>1.047149987877213</v>
+        <v>1.03596188909609</v>
       </c>
       <c r="L24">
-        <v>1.053381999590768</v>
+        <v>1.032190016053428</v>
       </c>
       <c r="M24">
-        <v>1.064506786707061</v>
+        <v>1.03751142244432</v>
       </c>
       <c r="N24">
-        <v>1.019756562757467</v>
+        <v>1.013904896303621</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043378365836823</v>
+        <v>1.013164052929925</v>
       </c>
       <c r="D25">
-        <v>1.045096216142378</v>
+        <v>1.028864797269916</v>
       </c>
       <c r="E25">
-        <v>1.051637395047453</v>
+        <v>1.02615324844128</v>
       </c>
       <c r="F25">
-        <v>1.063068453735587</v>
+        <v>1.032741677761886</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045241908970701</v>
+        <v>1.052800502667052</v>
       </c>
       <c r="J25">
-        <v>1.048925926964464</v>
+        <v>1.03725637304997</v>
       </c>
       <c r="K25">
-        <v>1.048119813825468</v>
+        <v>1.041030959915528</v>
       </c>
       <c r="L25">
-        <v>1.054640969803992</v>
+        <v>1.038358695137999</v>
       </c>
       <c r="M25">
-        <v>1.066037681790218</v>
+        <v>1.044852126984677</v>
       </c>
       <c r="N25">
-        <v>1.020133336436214</v>
+        <v>1.015844882715002</v>
       </c>
     </row>
   </sheetData>
